--- a/biology/Botanique/Mentzelia_involucrata/Mentzelia_involucrata.xlsx
+++ b/biology/Botanique/Mentzelia_involucrata/Mentzelia_involucrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mentzelia involucrata est une espèce végétale de la famille des Loasaceae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante basse ne mesure que de 15 à 30 cm de hauteur. Ses tiges peu colorées sont couvertes d'un duvet soyeux qui leur confère un aspect blanc et satiné. Les feuilles mesurent 2,5 à 7,5 cm de longueur ; elles sont lancéolées, rugueuses au toucher, et fortement dentées[1].
-Appareil reproducteur
-La floraison a lieu entre mars et mai.
-Les fleurs jeune pâle apparaissent isolées à l'extrémité des tiges. Elles mesurent 2,5 à 3 cm de longueur. Leur involucre a la particularité d'être constitué de bractées blanches à bordure verte, dentée. Elles ont une corolle à 5 pétales jaune très pâle et translucides. Elles ont de nombreuses étamines et un style trilobé[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante basse ne mesure que de 15 à 30 cm de hauteur. Ses tiges peu colorées sont couvertes d'un duvet soyeux qui leur confère un aspect blanc et satiné. Les feuilles mesurent 2,5 à 7,5 cm de longueur ; elles sont lancéolées, rugueuses au toucher, et fortement dentées.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et mai.
+Les fleurs jeune pâle apparaissent isolées à l'extrémité des tiges. Elles mesurent 2,5 à 3 cm de longueur. Leur involucre a la particularité d'être constitué de bractées blanches à bordure verte, dentée. Elles ont une corolle à 5 pétales jaune très pâle et translucides. Elles ont de nombreuses étamines et un style trilobé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mentzelia_involucrata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mentzelia_involucrata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mentzelia involucrata pousse sur les collines et plaines arides des déserts du sud-ouest des États-Unis (Californie et Arizona) et du nord du Mexique.
 </t>
